--- a/Fotogroep Waalre/Documentation/LineCount.xlsx
+++ b/Fotogroep Waalre/Documentation/LineCount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44BAF5F-6CA1-EC47-A698-478401E4D3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC90D6B-E4CD-9946-8427-078A573A9A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -806,6 +806,9 @@
                 <c:pt idx="180">
                   <c:v>45193</c:v>
                 </c:pt>
+                <c:pt idx="181">
+                  <c:v>45198</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1357,6 +1360,9 @@
                 </c:pt>
                 <c:pt idx="180">
                   <c:v>5241</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>5279</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1947,6 +1953,9 @@
                 <c:pt idx="180">
                   <c:v>45193</c:v>
                 </c:pt>
+                <c:pt idx="181">
+                  <c:v>45198</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2498,6 +2507,9 @@
                 </c:pt>
                 <c:pt idx="180">
                   <c:v>4158</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>4180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3090,6 +3102,9 @@
                 <c:pt idx="180">
                   <c:v>45193</c:v>
                 </c:pt>
+                <c:pt idx="181">
+                  <c:v>45198</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3641,6 +3656,9 @@
                 </c:pt>
                 <c:pt idx="180">
                   <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>610</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4252,6 +4270,9 @@
                 <c:pt idx="180">
                   <c:v>45193</c:v>
                 </c:pt>
+                <c:pt idx="181">
+                  <c:v>45198</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4803,6 +4824,9 @@
                 </c:pt>
                 <c:pt idx="180">
                   <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4829,7 +4853,7 @@
         <c:axId val="1582352671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="45200"/>
+          <c:max val="45230"/>
           <c:min val="44379"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6031,13 +6055,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K183"/>
+  <dimension ref="A1:K184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B125" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G183" sqref="G183"/>
+      <selection pane="bottomRight" activeCell="I185" sqref="I185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12819,7 +12843,7 @@
         <v>59</v>
       </c>
       <c r="H183">
-        <f t="shared" ref="H183" si="283">SUM(I183:K183)</f>
+        <f t="shared" ref="H183:H184" si="283">SUM(I183:K183)</f>
         <v>5241</v>
       </c>
       <c r="I183" s="5">
@@ -12830,6 +12854,43 @@
       </c>
       <c r="K183" s="7">
         <v>485</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>45198</v>
+      </c>
+      <c r="B184" s="2">
+        <v>9</v>
+      </c>
+      <c r="C184">
+        <f t="shared" ref="C184" si="284">SUM(D184:F184)</f>
+        <v>1673</v>
+      </c>
+      <c r="D184">
+        <v>1105</v>
+      </c>
+      <c r="E184">
+        <v>371</v>
+      </c>
+      <c r="F184" s="3">
+        <v>197</v>
+      </c>
+      <c r="G184" s="4">
+        <v>60</v>
+      </c>
+      <c r="H184">
+        <f t="shared" si="283"/>
+        <v>5279</v>
+      </c>
+      <c r="I184" s="5">
+        <v>4180</v>
+      </c>
+      <c r="J184" s="6">
+        <v>610</v>
+      </c>
+      <c r="K184" s="7">
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -12850,7 +12911,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA42" sqref="AA42"/>
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Fotogroep Waalre/Documentation/LineCount.xlsx
+++ b/Fotogroep Waalre/Documentation/LineCount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC90D6B-E4CD-9946-8427-078A573A9A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61489BE1-B871-FA44-A883-A0C74AF3B2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -1362,7 +1362,7 @@
                   <c:v>5241</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>5279</c:v>
+                  <c:v>5404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2509,7 +2509,7 @@
                   <c:v>4158</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>4180</c:v>
+                  <c:v>4278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3658,7 +3658,7 @@
                   <c:v>598</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>610</c:v>
+                  <c:v>624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4826,7 +4826,7 @@
                   <c:v>485</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>489</c:v>
+                  <c:v>502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4919,7 +4919,7 @@
         <c:axId val="1582338719"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5500"/>
+          <c:max val="6000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -12877,20 +12877,20 @@
         <v>197</v>
       </c>
       <c r="G184" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H184">
         <f t="shared" si="283"/>
-        <v>5279</v>
+        <v>5404</v>
       </c>
       <c r="I184" s="5">
-        <v>4180</v>
+        <v>4278</v>
       </c>
       <c r="J184" s="6">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="K184" s="7">
-        <v>489</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/LineCount.xlsx
+++ b/Fotogroep Waalre/Documentation/LineCount.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61489BE1-B871-FA44-A883-A0C74AF3B2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566AC3BC-90C9-734A-AD4F-49A6E644DCE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -809,6 +809,9 @@
                 <c:pt idx="181">
                   <c:v>45198</c:v>
                 </c:pt>
+                <c:pt idx="182">
+                  <c:v>45211</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1363,6 +1366,9 @@
                 </c:pt>
                 <c:pt idx="181">
                   <c:v>5404</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>5433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1956,6 +1962,9 @@
                 <c:pt idx="181">
                   <c:v>45198</c:v>
                 </c:pt>
+                <c:pt idx="182">
+                  <c:v>45211</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2510,6 +2519,9 @@
                 </c:pt>
                 <c:pt idx="181">
                   <c:v>4278</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>4300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3105,6 +3117,9 @@
                 <c:pt idx="181">
                   <c:v>45198</c:v>
                 </c:pt>
+                <c:pt idx="182">
+                  <c:v>45211</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3659,6 +3674,9 @@
                 </c:pt>
                 <c:pt idx="181">
                   <c:v>624</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>629</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4273,6 +4291,9 @@
                 <c:pt idx="181">
                   <c:v>45198</c:v>
                 </c:pt>
+                <c:pt idx="182">
+                  <c:v>45211</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4827,6 +4848,9 @@
                 </c:pt>
                 <c:pt idx="181">
                   <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6055,13 +6079,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K184"/>
+  <dimension ref="A1:K185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B125" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I185" sqref="I185"/>
+      <selection pane="bottomRight" activeCell="I186" sqref="I186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12891,6 +12915,43 @@
       </c>
       <c r="K184" s="7">
         <v>502</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>45211</v>
+      </c>
+      <c r="B185" s="2">
+        <v>9</v>
+      </c>
+      <c r="C185">
+        <f t="shared" ref="C185" si="285">SUM(D185:F185)</f>
+        <v>1673</v>
+      </c>
+      <c r="D185">
+        <v>1105</v>
+      </c>
+      <c r="E185">
+        <v>371</v>
+      </c>
+      <c r="F185" s="3">
+        <v>197</v>
+      </c>
+      <c r="G185" s="4">
+        <v>62</v>
+      </c>
+      <c r="H185">
+        <f t="shared" ref="H185" si="286">SUM(I185:K185)</f>
+        <v>5433</v>
+      </c>
+      <c r="I185" s="5">
+        <v>4300</v>
+      </c>
+      <c r="J185" s="6">
+        <v>629</v>
+      </c>
+      <c r="K185" s="7">
+        <v>504</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/LineCount.xlsx
+++ b/Fotogroep Waalre/Documentation/LineCount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566AC3BC-90C9-734A-AD4F-49A6E644DCE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C01D1B1-4741-954E-8998-F2F672E06040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -812,6 +812,9 @@
                 <c:pt idx="182">
                   <c:v>45211</c:v>
                 </c:pt>
+                <c:pt idx="183">
+                  <c:v>45215</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1369,6 +1372,9 @@
                 </c:pt>
                 <c:pt idx="182">
                   <c:v>5433</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>5445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1965,6 +1971,9 @@
                 <c:pt idx="182">
                   <c:v>45211</c:v>
                 </c:pt>
+                <c:pt idx="183">
+                  <c:v>45215</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2522,6 +2531,9 @@
                 </c:pt>
                 <c:pt idx="182">
                   <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>4314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3120,6 +3132,9 @@
                 <c:pt idx="182">
                   <c:v>45211</c:v>
                 </c:pt>
+                <c:pt idx="183">
+                  <c:v>45215</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3677,6 +3692,9 @@
                 </c:pt>
                 <c:pt idx="182">
                   <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4294,6 +4312,9 @@
                 <c:pt idx="182">
                   <c:v>45211</c:v>
                 </c:pt>
+                <c:pt idx="183">
+                  <c:v>45215</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4851,6 +4872,9 @@
                 </c:pt>
                 <c:pt idx="182">
                   <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6079,13 +6103,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K185"/>
+  <dimension ref="A1:K186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B125" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I186" sqref="I186"/>
+      <selection pane="bottomRight" activeCell="I187" sqref="I187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12952,6 +12976,43 @@
       </c>
       <c r="K185" s="7">
         <v>504</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>45215</v>
+      </c>
+      <c r="B186" s="2">
+        <v>9</v>
+      </c>
+      <c r="C186">
+        <f t="shared" ref="C186" si="287">SUM(D186:F186)</f>
+        <v>1673</v>
+      </c>
+      <c r="D186">
+        <v>1105</v>
+      </c>
+      <c r="E186">
+        <v>371</v>
+      </c>
+      <c r="F186" s="3">
+        <v>197</v>
+      </c>
+      <c r="G186" s="4">
+        <v>62</v>
+      </c>
+      <c r="H186">
+        <f t="shared" ref="H186" si="288">SUM(I186:K186)</f>
+        <v>5445</v>
+      </c>
+      <c r="I186" s="5">
+        <v>4314</v>
+      </c>
+      <c r="J186" s="6">
+        <v>625</v>
+      </c>
+      <c r="K186" s="7">
+        <v>506</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/LineCount.xlsx
+++ b/Fotogroep Waalre/Documentation/LineCount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C01D1B1-4741-954E-8998-F2F672E06040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7064F1CC-EA16-CA43-A5D4-9EAD819CBF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -1374,7 +1374,7 @@
                   <c:v>5433</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>5445</c:v>
+                  <c:v>5451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2533,7 +2533,7 @@
                   <c:v>4300</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>4314</c:v>
+                  <c:v>4321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4874,7 +4874,7 @@
                   <c:v>504</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>506</c:v>
+                  <c:v>505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13003,16 +13003,16 @@
       </c>
       <c r="H186">
         <f t="shared" ref="H186" si="288">SUM(I186:K186)</f>
-        <v>5445</v>
+        <v>5451</v>
       </c>
       <c r="I186" s="5">
-        <v>4314</v>
+        <v>4321</v>
       </c>
       <c r="J186" s="6">
         <v>625</v>
       </c>
       <c r="K186" s="7">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/LineCount.xlsx
+++ b/Fotogroep Waalre/Documentation/LineCount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7064F1CC-EA16-CA43-A5D4-9EAD819CBF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49432216-9A45-EC46-B597-C57E68D02A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -815,6 +815,9 @@
                 <c:pt idx="183">
                   <c:v>45215</c:v>
                 </c:pt>
+                <c:pt idx="184">
+                  <c:v>45218</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1375,6 +1378,9 @@
                 </c:pt>
                 <c:pt idx="183">
                   <c:v>5451</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>5483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1974,6 +1980,9 @@
                 <c:pt idx="183">
                   <c:v>45215</c:v>
                 </c:pt>
+                <c:pt idx="184">
+                  <c:v>45218</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2534,6 +2543,9 @@
                 </c:pt>
                 <c:pt idx="183">
                   <c:v>4321</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>4353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3135,6 +3147,9 @@
                 <c:pt idx="183">
                   <c:v>45215</c:v>
                 </c:pt>
+                <c:pt idx="184">
+                  <c:v>45218</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3694,6 +3709,9 @@
                   <c:v>629</c:v>
                 </c:pt>
                 <c:pt idx="183">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="184">
                   <c:v>625</c:v>
                 </c:pt>
               </c:numCache>
@@ -4315,6 +4333,9 @@
                 <c:pt idx="183">
                   <c:v>45215</c:v>
                 </c:pt>
+                <c:pt idx="184">
+                  <c:v>45218</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4874,6 +4895,9 @@
                   <c:v>504</c:v>
                 </c:pt>
                 <c:pt idx="183">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="184">
                   <c:v>505</c:v>
                 </c:pt>
               </c:numCache>
@@ -6103,13 +6127,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K186"/>
+  <dimension ref="A1:K187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B125" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I187" sqref="I187"/>
+      <selection pane="bottomRight" activeCell="I188" sqref="I188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13012,6 +13036,43 @@
         <v>625</v>
       </c>
       <c r="K186" s="7">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>45218</v>
+      </c>
+      <c r="B187" s="2">
+        <v>9</v>
+      </c>
+      <c r="C187">
+        <f t="shared" ref="C187" si="289">SUM(D187:F187)</f>
+        <v>1673</v>
+      </c>
+      <c r="D187">
+        <v>1105</v>
+      </c>
+      <c r="E187">
+        <v>371</v>
+      </c>
+      <c r="F187" s="3">
+        <v>197</v>
+      </c>
+      <c r="G187" s="4">
+        <v>62</v>
+      </c>
+      <c r="H187">
+        <f t="shared" ref="H187" si="290">SUM(I187:K187)</f>
+        <v>5483</v>
+      </c>
+      <c r="I187" s="5">
+        <v>4353</v>
+      </c>
+      <c r="J187" s="6">
+        <v>625</v>
+      </c>
+      <c r="K187" s="7">
         <v>505</v>
       </c>
     </row>

--- a/Fotogroep Waalre/Documentation/LineCount.xlsx
+++ b/Fotogroep Waalre/Documentation/LineCount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49432216-9A45-EC46-B597-C57E68D02A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23229AD-3CBB-D94B-8DC5-88E7DE714966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -818,6 +818,9 @@
                 <c:pt idx="184">
                   <c:v>45218</c:v>
                 </c:pt>
+                <c:pt idx="185">
+                  <c:v>45219</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1381,6 +1384,9 @@
                 </c:pt>
                 <c:pt idx="184">
                   <c:v>5483</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>5511</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1983,6 +1989,9 @@
                 <c:pt idx="184">
                   <c:v>45218</c:v>
                 </c:pt>
+                <c:pt idx="185">
+                  <c:v>45219</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2546,6 +2555,9 @@
                 </c:pt>
                 <c:pt idx="184">
                   <c:v>4353</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>4322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3150,6 +3162,9 @@
                 <c:pt idx="184">
                   <c:v>45218</c:v>
                 </c:pt>
+                <c:pt idx="185">
+                  <c:v>45219</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3713,6 +3728,9 @@
                 </c:pt>
                 <c:pt idx="184">
                   <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4336,6 +4354,9 @@
                 <c:pt idx="184">
                   <c:v>45218</c:v>
                 </c:pt>
+                <c:pt idx="185">
+                  <c:v>45219</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4899,6 +4920,9 @@
                 </c:pt>
                 <c:pt idx="184">
                   <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6127,13 +6151,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K187"/>
+  <dimension ref="A1:K188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B125" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I188" sqref="I188"/>
+      <selection pane="bottomRight" activeCell="I189" sqref="I189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13074,6 +13098,43 @@
       </c>
       <c r="K187" s="7">
         <v>505</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>45219</v>
+      </c>
+      <c r="B188" s="2">
+        <v>9</v>
+      </c>
+      <c r="C188">
+        <f t="shared" ref="C188" si="291">SUM(D188:F188)</f>
+        <v>1673</v>
+      </c>
+      <c r="D188">
+        <v>1105</v>
+      </c>
+      <c r="E188">
+        <v>371</v>
+      </c>
+      <c r="F188" s="3">
+        <v>197</v>
+      </c>
+      <c r="G188" s="4">
+        <v>65</v>
+      </c>
+      <c r="H188">
+        <f t="shared" ref="H188" si="292">SUM(I188:K188)</f>
+        <v>5511</v>
+      </c>
+      <c r="I188" s="5">
+        <v>4322</v>
+      </c>
+      <c r="J188" s="6">
+        <v>665</v>
+      </c>
+      <c r="K188" s="7">
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -13094,7 +13155,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+      <selection activeCell="AA32" sqref="AA32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Fotogroep Waalre/Documentation/LineCount.xlsx
+++ b/Fotogroep Waalre/Documentation/LineCount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23229AD-3CBB-D94B-8DC5-88E7DE714966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A12503-F9F3-4F4C-AEEF-FC773D22CF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -821,6 +821,9 @@
                 <c:pt idx="185">
                   <c:v>45219</c:v>
                 </c:pt>
+                <c:pt idx="186">
+                  <c:v>45222</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1387,6 +1390,9 @@
                 </c:pt>
                 <c:pt idx="185">
                   <c:v>5511</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>5544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1992,6 +1998,9 @@
                 <c:pt idx="185">
                   <c:v>45219</c:v>
                 </c:pt>
+                <c:pt idx="186">
+                  <c:v>45222</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2558,6 +2567,9 @@
                 </c:pt>
                 <c:pt idx="185">
                   <c:v>4322</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>4343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3165,6 +3177,9 @@
                 <c:pt idx="185">
                   <c:v>45219</c:v>
                 </c:pt>
+                <c:pt idx="186">
+                  <c:v>45222</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3731,6 +3746,9 @@
                 </c:pt>
                 <c:pt idx="185">
                   <c:v>665</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4357,6 +4375,9 @@
                 <c:pt idx="185">
                   <c:v>45219</c:v>
                 </c:pt>
+                <c:pt idx="186">
+                  <c:v>45222</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4923,6 +4944,9 @@
                 </c:pt>
                 <c:pt idx="185">
                   <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>529</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6151,13 +6175,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K188"/>
+  <dimension ref="A1:K189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B125" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B167" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I189" sqref="I189"/>
+      <selection pane="bottomRight" activeCell="A190" sqref="A190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13135,6 +13159,43 @@
       </c>
       <c r="K188" s="7">
         <v>524</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>45222</v>
+      </c>
+      <c r="B189" s="2">
+        <v>9</v>
+      </c>
+      <c r="C189">
+        <f t="shared" ref="C189" si="293">SUM(D189:F189)</f>
+        <v>1673</v>
+      </c>
+      <c r="D189">
+        <v>1105</v>
+      </c>
+      <c r="E189">
+        <v>371</v>
+      </c>
+      <c r="F189" s="3">
+        <v>197</v>
+      </c>
+      <c r="G189" s="4">
+        <v>66</v>
+      </c>
+      <c r="H189">
+        <f t="shared" ref="H189" si="294">SUM(I189:K189)</f>
+        <v>5544</v>
+      </c>
+      <c r="I189" s="5">
+        <v>4343</v>
+      </c>
+      <c r="J189" s="6">
+        <v>672</v>
+      </c>
+      <c r="K189" s="7">
+        <v>529</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/LineCount.xlsx
+++ b/Fotogroep Waalre/Documentation/LineCount.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A12503-F9F3-4F4C-AEEF-FC773D22CF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477E0B63-A9B1-4D45-AB2C-4D768F982238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
+    <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -824,6 +824,9 @@
                 <c:pt idx="186">
                   <c:v>45222</c:v>
                 </c:pt>
+                <c:pt idx="187">
+                  <c:v>45231</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1393,6 +1396,9 @@
                 </c:pt>
                 <c:pt idx="186">
                   <c:v>5544</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>5705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2001,6 +2007,9 @@
                 <c:pt idx="186">
                   <c:v>45222</c:v>
                 </c:pt>
+                <c:pt idx="187">
+                  <c:v>45231</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2570,6 +2579,9 @@
                 </c:pt>
                 <c:pt idx="186">
                   <c:v>4343</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>4481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3180,6 +3192,9 @@
                 <c:pt idx="186">
                   <c:v>45222</c:v>
                 </c:pt>
+                <c:pt idx="187">
+                  <c:v>45231</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3749,6 +3764,9 @@
                 </c:pt>
                 <c:pt idx="186">
                   <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4378,6 +4396,9 @@
                 <c:pt idx="186">
                   <c:v>45222</c:v>
                 </c:pt>
+                <c:pt idx="187">
+                  <c:v>45231</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4947,6 +4968,9 @@
                 </c:pt>
                 <c:pt idx="186">
                   <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4973,7 +4997,7 @@
         <c:axId val="1582352671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="45230"/>
+          <c:max val="45260"/>
           <c:min val="44379"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6175,13 +6199,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K189"/>
+  <dimension ref="A1:K190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B167" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A190" sqref="A190"/>
+      <selection pane="bottomRight" activeCell="G191" sqref="G191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13196,6 +13220,43 @@
       </c>
       <c r="K189" s="7">
         <v>529</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>45231</v>
+      </c>
+      <c r="B190" s="2">
+        <v>9</v>
+      </c>
+      <c r="C190">
+        <f t="shared" ref="C190" si="295">SUM(D190:F190)</f>
+        <v>1673</v>
+      </c>
+      <c r="D190">
+        <v>1105</v>
+      </c>
+      <c r="E190">
+        <v>371</v>
+      </c>
+      <c r="F190" s="3">
+        <v>197</v>
+      </c>
+      <c r="G190" s="4">
+        <v>68</v>
+      </c>
+      <c r="H190">
+        <f t="shared" ref="H190" si="296">SUM(I190:K190)</f>
+        <v>5705</v>
+      </c>
+      <c r="I190" s="5">
+        <v>4481</v>
+      </c>
+      <c r="J190" s="6">
+        <v>686</v>
+      </c>
+      <c r="K190" s="7">
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -13215,7 +13276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E980CBD7-53A1-DE45-BAAC-5516721A0BEE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA32" sqref="AA32"/>
     </sheetView>
   </sheetViews>

--- a/Fotogroep Waalre/Documentation/LineCount.xlsx
+++ b/Fotogroep Waalre/Documentation/LineCount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477E0B63-A9B1-4D45-AB2C-4D768F982238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9879B8-8AC3-B046-A1D3-E42CABA897E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -827,6 +827,9 @@
                 <c:pt idx="187">
                   <c:v>45231</c:v>
                 </c:pt>
+                <c:pt idx="188">
+                  <c:v>45233</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1399,6 +1402,9 @@
                 </c:pt>
                 <c:pt idx="187">
                   <c:v>5705</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>5709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2010,6 +2016,9 @@
                 <c:pt idx="187">
                   <c:v>45231</c:v>
                 </c:pt>
+                <c:pt idx="188">
+                  <c:v>45233</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2582,6 +2591,9 @@
                 </c:pt>
                 <c:pt idx="187">
                   <c:v>4481</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>4464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3195,6 +3207,9 @@
                 <c:pt idx="187">
                   <c:v>45231</c:v>
                 </c:pt>
+                <c:pt idx="188">
+                  <c:v>45233</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3767,6 +3782,9 @@
                 </c:pt>
                 <c:pt idx="187">
                   <c:v>686</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4399,6 +4417,9 @@
                 <c:pt idx="187">
                   <c:v>45231</c:v>
                 </c:pt>
+                <c:pt idx="188">
+                  <c:v>45233</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4971,6 +4992,9 @@
                 </c:pt>
                 <c:pt idx="187">
                   <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>550</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6199,13 +6223,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K190"/>
+  <dimension ref="A1:K191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B167" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G191" sqref="G191"/>
+      <selection pane="bottomRight" activeCell="A191" sqref="A191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13257,6 +13281,43 @@
       </c>
       <c r="K190" s="7">
         <v>538</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>45233</v>
+      </c>
+      <c r="B191" s="2">
+        <v>9</v>
+      </c>
+      <c r="C191">
+        <f t="shared" ref="C191" si="297">SUM(D191:F191)</f>
+        <v>1673</v>
+      </c>
+      <c r="D191">
+        <v>1105</v>
+      </c>
+      <c r="E191">
+        <v>371</v>
+      </c>
+      <c r="F191" s="3">
+        <v>197</v>
+      </c>
+      <c r="G191" s="4">
+        <v>68</v>
+      </c>
+      <c r="H191">
+        <f t="shared" ref="H191" si="298">SUM(I191:K191)</f>
+        <v>5709</v>
+      </c>
+      <c r="I191" s="5">
+        <v>4464</v>
+      </c>
+      <c r="J191" s="6">
+        <v>695</v>
+      </c>
+      <c r="K191" s="7">
+        <v>550</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/LineCount.xlsx
+++ b/Fotogroep Waalre/Documentation/LineCount.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9879B8-8AC3-B046-A1D3-E42CABA897E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50814FBD-C635-E747-9693-70D90901A54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
+    <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -830,6 +830,9 @@
                 <c:pt idx="188">
                   <c:v>45233</c:v>
                 </c:pt>
+                <c:pt idx="189">
+                  <c:v>45240</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1405,6 +1408,9 @@
                 </c:pt>
                 <c:pt idx="188">
                   <c:v>5709</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>5724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2019,6 +2025,9 @@
                 <c:pt idx="188">
                   <c:v>45233</c:v>
                 </c:pt>
+                <c:pt idx="189">
+                  <c:v>45240</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2594,6 +2603,9 @@
                 </c:pt>
                 <c:pt idx="188">
                   <c:v>4464</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>4470</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3210,6 +3222,9 @@
                 <c:pt idx="188">
                   <c:v>45233</c:v>
                 </c:pt>
+                <c:pt idx="189">
+                  <c:v>45240</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3785,6 +3800,9 @@
                 </c:pt>
                 <c:pt idx="188">
                   <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4420,6 +4438,9 @@
                 <c:pt idx="188">
                   <c:v>45233</c:v>
                 </c:pt>
+                <c:pt idx="189">
+                  <c:v>45240</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4995,6 +5016,9 @@
                 </c:pt>
                 <c:pt idx="188">
                   <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>554</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6223,13 +6247,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K191"/>
+  <dimension ref="A1:K192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B167" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A191" sqref="A191"/>
+      <selection pane="bottomRight" activeCell="I193" sqref="I193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13318,6 +13342,43 @@
       </c>
       <c r="K191" s="7">
         <v>550</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>45240</v>
+      </c>
+      <c r="B192" s="2">
+        <v>9</v>
+      </c>
+      <c r="C192">
+        <f t="shared" ref="C192" si="299">SUM(D192:F192)</f>
+        <v>1673</v>
+      </c>
+      <c r="D192">
+        <v>1105</v>
+      </c>
+      <c r="E192">
+        <v>371</v>
+      </c>
+      <c r="F192" s="3">
+        <v>197</v>
+      </c>
+      <c r="G192" s="4">
+        <v>68</v>
+      </c>
+      <c r="H192">
+        <f t="shared" ref="H192" si="300">SUM(I192:K192)</f>
+        <v>5724</v>
+      </c>
+      <c r="I192" s="5">
+        <v>4470</v>
+      </c>
+      <c r="J192" s="6">
+        <v>700</v>
+      </c>
+      <c r="K192" s="7">
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -13337,7 +13398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E980CBD7-53A1-DE45-BAAC-5516721A0BEE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AA32" sqref="AA32"/>
     </sheetView>
   </sheetViews>

--- a/Fotogroep Waalre/Documentation/LineCount.xlsx
+++ b/Fotogroep Waalre/Documentation/LineCount.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50814FBD-C635-E747-9693-70D90901A54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0A835D-D6AC-E54B-BED0-5ACFA2BD32AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -833,6 +833,9 @@
                 <c:pt idx="189">
                   <c:v>45240</c:v>
                 </c:pt>
+                <c:pt idx="190">
+                  <c:v>45246</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1411,6 +1414,9 @@
                 </c:pt>
                 <c:pt idx="189">
                   <c:v>5724</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>5744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2028,6 +2034,9 @@
                 <c:pt idx="189">
                   <c:v>45240</c:v>
                 </c:pt>
+                <c:pt idx="190">
+                  <c:v>45246</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2606,6 +2615,9 @@
                 </c:pt>
                 <c:pt idx="189">
                   <c:v>4470</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>4491</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3225,6 +3237,9 @@
                 <c:pt idx="189">
                   <c:v>45240</c:v>
                 </c:pt>
+                <c:pt idx="190">
+                  <c:v>45246</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3803,6 +3818,9 @@
                 </c:pt>
                 <c:pt idx="189">
                   <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4441,6 +4459,9 @@
                 <c:pt idx="189">
                   <c:v>45240</c:v>
                 </c:pt>
+                <c:pt idx="190">
+                  <c:v>45246</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5019,6 +5040,9 @@
                 </c:pt>
                 <c:pt idx="189">
                   <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6247,13 +6271,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K192"/>
+  <dimension ref="A1:K193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B167" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I193" sqref="I193"/>
+      <selection pane="bottomRight" activeCell="I194" sqref="I194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13379,6 +13403,43 @@
       </c>
       <c r="K192" s="7">
         <v>554</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>45246</v>
+      </c>
+      <c r="B193" s="2">
+        <v>9</v>
+      </c>
+      <c r="C193">
+        <f t="shared" ref="C193" si="301">SUM(D193:F193)</f>
+        <v>1673</v>
+      </c>
+      <c r="D193">
+        <v>1105</v>
+      </c>
+      <c r="E193">
+        <v>371</v>
+      </c>
+      <c r="F193" s="3">
+        <v>197</v>
+      </c>
+      <c r="G193" s="4">
+        <v>68</v>
+      </c>
+      <c r="H193">
+        <f t="shared" ref="H193" si="302">SUM(I193:K193)</f>
+        <v>5744</v>
+      </c>
+      <c r="I193" s="5">
+        <v>4491</v>
+      </c>
+      <c r="J193" s="6">
+        <v>695</v>
+      </c>
+      <c r="K193" s="7">
+        <v>558</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/LineCount.xlsx
+++ b/Fotogroep Waalre/Documentation/LineCount.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0A835D-D6AC-E54B-BED0-5ACFA2BD32AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BFF5B1-D3A6-F245-B1AF-B4C440C37C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -836,6 +836,9 @@
                 <c:pt idx="190">
                   <c:v>45246</c:v>
                 </c:pt>
+                <c:pt idx="191">
+                  <c:v>45249</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1417,6 +1420,9 @@
                 </c:pt>
                 <c:pt idx="190">
                   <c:v>5744</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>5775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2037,6 +2043,9 @@
                 <c:pt idx="190">
                   <c:v>45246</c:v>
                 </c:pt>
+                <c:pt idx="191">
+                  <c:v>45249</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2618,6 +2627,9 @@
                 </c:pt>
                 <c:pt idx="190">
                   <c:v>4491</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>4538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3240,6 +3252,9 @@
                 <c:pt idx="190">
                   <c:v>45246</c:v>
                 </c:pt>
+                <c:pt idx="191">
+                  <c:v>45249</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3821,6 +3836,9 @@
                 </c:pt>
                 <c:pt idx="190">
                   <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>692</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4462,6 +4480,9 @@
                 <c:pt idx="190">
                   <c:v>45246</c:v>
                 </c:pt>
+                <c:pt idx="191">
+                  <c:v>45249</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5043,6 +5064,9 @@
                 </c:pt>
                 <c:pt idx="190">
                   <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6271,13 +6295,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K193"/>
+  <dimension ref="A1:K194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B167" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I194" sqref="I194"/>
+      <selection pane="bottomRight" activeCell="I195" sqref="I195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13440,6 +13464,43 @@
       </c>
       <c r="K193" s="7">
         <v>558</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>45249</v>
+      </c>
+      <c r="B194" s="2">
+        <v>9</v>
+      </c>
+      <c r="C194">
+        <f t="shared" ref="C194" si="303">SUM(D194:F194)</f>
+        <v>1673</v>
+      </c>
+      <c r="D194">
+        <v>1105</v>
+      </c>
+      <c r="E194">
+        <v>371</v>
+      </c>
+      <c r="F194" s="3">
+        <v>197</v>
+      </c>
+      <c r="G194" s="4">
+        <v>68</v>
+      </c>
+      <c r="H194">
+        <f t="shared" ref="H194" si="304">SUM(I194:K194)</f>
+        <v>5775</v>
+      </c>
+      <c r="I194" s="5">
+        <v>4538</v>
+      </c>
+      <c r="J194" s="6">
+        <v>692</v>
+      </c>
+      <c r="K194" s="7">
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -13460,7 +13521,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA32" sqref="AA32"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Fotogroep Waalre/Documentation/LineCount.xlsx
+++ b/Fotogroep Waalre/Documentation/LineCount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BFF5B1-D3A6-F245-B1AF-B4C440C37C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D934CF-3931-D540-AA28-04F5F89152D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -1422,7 +1422,7 @@
                   <c:v>5744</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>5775</c:v>
+                  <c:v>5857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2629,7 +2629,7 @@
                   <c:v>4491</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>4538</c:v>
+                  <c:v>4600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3838,7 +3838,7 @@
                   <c:v>695</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>692</c:v>
+                  <c:v>704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5066,7 +5066,7 @@
                   <c:v>558</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>545</c:v>
+                  <c:v>553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13487,20 +13487,20 @@
         <v>197</v>
       </c>
       <c r="G194" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H194">
         <f t="shared" ref="H194" si="304">SUM(I194:K194)</f>
-        <v>5775</v>
+        <v>5857</v>
       </c>
       <c r="I194" s="5">
-        <v>4538</v>
+        <v>4600</v>
       </c>
       <c r="J194" s="6">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="K194" s="7">
-        <v>545</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/LineCount.xlsx
+++ b/Fotogroep Waalre/Documentation/LineCount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D934CF-3931-D540-AA28-04F5F89152D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843C970C-74B9-1D4D-9722-77D0BBB9F292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -839,6 +839,9 @@
                 <c:pt idx="191">
                   <c:v>45249</c:v>
                 </c:pt>
+                <c:pt idx="192">
+                  <c:v>45252</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1423,6 +1426,9 @@
                 </c:pt>
                 <c:pt idx="191">
                   <c:v>5857</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>5861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2046,6 +2052,9 @@
                 <c:pt idx="191">
                   <c:v>45249</c:v>
                 </c:pt>
+                <c:pt idx="192">
+                  <c:v>45252</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2630,6 +2639,9 @@
                 </c:pt>
                 <c:pt idx="191">
                   <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>4608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3255,6 +3267,9 @@
                 <c:pt idx="191">
                   <c:v>45249</c:v>
                 </c:pt>
+                <c:pt idx="192">
+                  <c:v>45252</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3839,6 +3854,9 @@
                 </c:pt>
                 <c:pt idx="191">
                   <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4483,6 +4501,9 @@
                 <c:pt idx="191">
                   <c:v>45249</c:v>
                 </c:pt>
+                <c:pt idx="192">
+                  <c:v>45252</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5067,6 +5088,9 @@
                 </c:pt>
                 <c:pt idx="191">
                   <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6295,13 +6319,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K194"/>
+  <dimension ref="A1:K195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B167" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I195" sqref="I195"/>
+      <selection pane="bottomRight" activeCell="I196" sqref="I196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13501,6 +13525,43 @@
       </c>
       <c r="K194" s="7">
         <v>553</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>45252</v>
+      </c>
+      <c r="B195" s="2">
+        <v>9</v>
+      </c>
+      <c r="C195">
+        <f t="shared" ref="C195" si="305">SUM(D195:F195)</f>
+        <v>1673</v>
+      </c>
+      <c r="D195">
+        <v>1105</v>
+      </c>
+      <c r="E195">
+        <v>371</v>
+      </c>
+      <c r="F195" s="3">
+        <v>197</v>
+      </c>
+      <c r="G195" s="4">
+        <v>69</v>
+      </c>
+      <c r="H195">
+        <f t="shared" ref="H195" si="306">SUM(I195:K195)</f>
+        <v>5861</v>
+      </c>
+      <c r="I195" s="5">
+        <v>4608</v>
+      </c>
+      <c r="J195" s="6">
+        <v>701</v>
+      </c>
+      <c r="K195" s="7">
+        <v>552</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/LineCount.xlsx
+++ b/Fotogroep Waalre/Documentation/LineCount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843C970C-74B9-1D4D-9722-77D0BBB9F292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E128B8C7-84CE-AB44-B7C8-A6FF764C9F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -842,6 +842,9 @@
                 <c:pt idx="192">
                   <c:v>45252</c:v>
                 </c:pt>
+                <c:pt idx="193">
+                  <c:v>45255</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1429,6 +1432,9 @@
                 </c:pt>
                 <c:pt idx="192">
                   <c:v>5861</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2054,6 +2060,9 @@
                 </c:pt>
                 <c:pt idx="192">
                   <c:v>45252</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>45255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3269,6 +3278,9 @@
                 </c:pt>
                 <c:pt idx="192">
                   <c:v>45252</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>45255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4503,6 +4515,9 @@
                 </c:pt>
                 <c:pt idx="192">
                   <c:v>45252</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>45255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6319,13 +6334,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K195"/>
+  <dimension ref="A1:K196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B167" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I196" sqref="I196"/>
+      <selection pane="bottomRight" activeCell="N187" sqref="N187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13562,6 +13577,34 @@
       </c>
       <c r="K195" s="7">
         <v>552</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>45255</v>
+      </c>
+      <c r="B196" s="2">
+        <v>9</v>
+      </c>
+      <c r="C196">
+        <f t="shared" ref="C196" si="307">SUM(D196:F196)</f>
+        <v>1673</v>
+      </c>
+      <c r="D196">
+        <v>1105</v>
+      </c>
+      <c r="E196">
+        <v>371</v>
+      </c>
+      <c r="F196" s="3">
+        <v>197</v>
+      </c>
+      <c r="G196" s="4">
+        <v>70</v>
+      </c>
+      <c r="H196">
+        <f t="shared" ref="H196" si="308">SUM(I196:K196)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
